--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C2D73-390B-46C4-ABA9-39408CBB9A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35479091-E7C0-4A01-9BD3-448FDF338BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Emner til skrivning</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Arbejdsfordeling</t>
+  </si>
+  <si>
+    <t>Arbejder på det (indsæt navn)</t>
   </si>
 </sst>
 </file>
@@ -192,12 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,107 +516,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35479091-E7C0-4A01-9BD3-448FDF338BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F65998-44E2-4563-AEB6-567AD52FDD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,141 +554,259 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F65998-44E2-4563-AEB6-567AD52FDD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77314B51-2F02-4E92-A654-10D4F2CBC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Emner til skrivning</t>
   </si>
@@ -136,6 +137,27 @@
   </si>
   <si>
     <t>Arbejder på det (indsæt navn)</t>
+  </si>
+  <si>
+    <t>Unit test på web</t>
+  </si>
+  <si>
+    <t>Oprydningen i projekt mapper</t>
+  </si>
+  <si>
+    <t>Gemmengang af diagrammer</t>
+  </si>
+  <si>
+    <t>Finde ud af hvad der skal med i hoved rapporten</t>
+  </si>
+  <si>
+    <t>I hovedrapport henvis til afsnit i billagsrapport</t>
+  </si>
+  <si>
+    <t>Billagsmappe (til aflevering)</t>
+  </si>
+  <si>
+    <t>Opdatere trello</t>
   </si>
 </sst>
 </file>
@@ -516,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="16.36328125" customWidth="1"/>
@@ -803,11 +825,44 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77314B51-2F02-4E92-A654-10D4F2CBC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268E1A6-B4FB-492A-9D99-209EFF190AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,7 +753,7 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="5"/>
@@ -762,7 +762,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
@@ -771,7 +771,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268E1A6-B4FB-492A-9D99-209EFF190AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D75BB56-F848-4192-ACAE-8C5C0F283619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +39,9 @@
     <t>Emner til skrivning</t>
   </si>
   <si>
+    <t>Arbejder på det (indsæt navn)</t>
+  </si>
+  <si>
     <t>I gang</t>
   </si>
   <si>
@@ -49,7 +51,7 @@
     <t>Færdig</t>
   </si>
   <si>
-    <t>Koorikatur læst</t>
+    <t>Korrektur læst</t>
   </si>
   <si>
     <t>Abstrakt/Resume</t>
@@ -76,7 +78,7 @@
     <t>Kravsspek</t>
   </si>
   <si>
-    <t>Afgræsning</t>
+    <t>Afgrænsning</t>
   </si>
   <si>
     <t>Teknologianalyse</t>
@@ -136,13 +138,10 @@
     <t>Arbejdsfordeling</t>
   </si>
   <si>
-    <t>Arbejder på det (indsæt navn)</t>
-  </si>
-  <si>
     <t>Unit test på web</t>
   </si>
   <si>
-    <t>Oprydningen i projekt mapper</t>
+    <t>Oprydning i projekt mapper</t>
   </si>
   <si>
     <t>Gemmengang af diagrammer</t>
@@ -164,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,325 +538,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D75BB56-F848-4192-ACAE-8C5C0F283619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE644C7-D046-4099-9F68-C0B40DFB3BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Emner til skrivning</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Abstrakt/Resume</t>
+  </si>
+  <si>
+    <t>Maggi</t>
   </si>
   <si>
     <t>Metoder</t>
@@ -172,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,12 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -571,178 +581,181 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+      <c r="A27" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268E1A6-B4FB-492A-9D99-209EFF190AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3383DF4-3CDB-4447-A7E7-23F73DEBD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +618,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3383DF4-3CDB-4447-A7E7-23F73DEBD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F105C0-E4DF-4BF9-8326-95CB8DC44C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5"/>
@@ -735,7 +735,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5"/>
@@ -744,7 +744,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268E1A6-B4FB-492A-9D99-209EFF190AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE7E86-B849-4961-8CCD-E96C9A75D21C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10450" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -540,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,7 +581,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F105C0-E4DF-4BF9-8326-95CB8DC44C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496062C-99FA-45A2-98DA-87BA22611377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +816,7 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496062C-99FA-45A2-98DA-87BA22611377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7380553-04E0-4A4C-9B03-CBC24C628E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -540,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,7 +644,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5"/>
@@ -807,7 +806,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="5"/>
@@ -825,7 +824,7 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="5"/>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7380553-04E0-4A4C-9B03-CBC24C628E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368520C-5D8C-4A1F-877B-FE9E23753FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Metoder</t>
   </si>
   <si>
-    <t>Diskusion af resultater</t>
-  </si>
-  <si>
     <t>Konklusion</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Opdatere trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diskusion af resultater </t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -572,7 +572,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
@@ -581,7 +581,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
@@ -591,7 +591,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -635,8 +635,8 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -654,7 +654,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -699,7 +699,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -726,7 +726,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -753,7 +753,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -834,32 +834,32 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368520C-5D8C-4A1F-877B-FE9E23753FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B55ADC5-240F-4277-B9F5-8E307418068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,6 +39,9 @@
     <t>Emner til skrivning</t>
   </si>
   <si>
+    <t>Arbejder på det (indsæt navn)</t>
+  </si>
+  <si>
     <t>I gang</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>Metoder</t>
   </si>
   <si>
+    <t xml:space="preserve">Diskusion af resultater </t>
+  </si>
+  <si>
     <t>Konklusion</t>
   </si>
   <si>
@@ -132,9 +138,6 @@
     <t>Arbejdsfordeling</t>
   </si>
   <si>
-    <t>Arbejder på det (indsæt navn)</t>
-  </si>
-  <si>
     <t>Unit test på web</t>
   </si>
   <si>
@@ -154,16 +157,13 @@
   </si>
   <si>
     <t>Opdatere trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diskusion af resultater </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,326 +539,210 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B55ADC5-240F-4277-B9F5-8E307418068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{434C746F-37BB-4487-8F4E-1D93D4103B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Metoder</t>
   </si>
   <si>
-    <t xml:space="preserve">Diskusion af resultater </t>
-  </si>
-  <si>
     <t>Konklusion</t>
   </si>
   <si>
@@ -84,7 +81,7 @@
     <t>Teknologianalyse</t>
   </si>
   <si>
-    <t>systemarkitektur</t>
+    <t>Systemarkitektur</t>
   </si>
   <si>
     <t>Design (APP)</t>
@@ -123,7 +120,10 @@
     <t>Test (API)</t>
   </si>
   <si>
-    <t>Accepttest</t>
+    <t>Accepttest skrevet færdig</t>
+  </si>
+  <si>
+    <t>Accepttest udført/konklusion</t>
   </si>
   <si>
     <t>Reference liste</t>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,12 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -571,12 +578,12 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -586,22 +593,22 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -611,27 +618,27 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -651,7 +658,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -686,7 +693,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -696,7 +703,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -741,7 +748,7 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434C746F-37BB-4487-8F4E-1D93D4103B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9F380-A6AB-48A3-BBE2-BA5ADE782698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,19 +545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,177 +577,177 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434C746F-37BB-4487-8F4E-1D93D4103B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B96588F-E5D8-4FE4-BA77-E491CA6EC52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -618,7 +618,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Oversigt over mangle rapport.xlsx
+++ b/Oversigt over mangle rapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Skrivebord\CityCrawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9F380-A6AB-48A3-BBE2-BA5ADE782698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBE439-6F7F-4636-8615-C5E14F245D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10460" xr2:uid="{467DCD83-1D97-4EFF-A296-8E75A6D29487}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -222,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58337C14-DA5B-4B04-8DE1-CDE8F1182865}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +740,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -743,7 +750,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
